--- a/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1224" yWindow="564" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="のあ" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -685,6 +685,18 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -722,7 +734,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tt</t>
+          <t>のあ</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
@@ -805,16 +817,8 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D3" s="44" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="E3" s="45" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
+      <c r="D3" s="44" t="n"/>
+      <c r="E3" s="45" t="n"/>
       <c r="F3" s="46">
         <f>E3-D3</f>
         <v/>
@@ -880,12 +884,12 @@
       </c>
       <c r="D5" s="47" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="E5" s="48" t="inlineStr">
         <is>
-          <t>25:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="F5" s="46">

--- a/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1224" yWindow="564" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="のあ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -697,6 +697,10 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -734,7 +738,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>のあ</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
@@ -810,11 +814,11 @@
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="42" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D3" s="44" t="n"/>
@@ -823,7 +827,10 @@
         <f>E3-D3</f>
         <v/>
       </c>
-      <c r="G3" s="14" t="n"/>
+      <c r="G3" s="14">
+        <f>H3+I3</f>
+        <v/>
+      </c>
       <c r="H3" s="11" t="n"/>
       <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
@@ -841,11 +848,11 @@
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="42" t="n">
-        <v>45048</v>
+        <v>45079</v>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D4" s="47" t="n"/>
@@ -854,7 +861,10 @@
         <f>E4-D4</f>
         <v/>
       </c>
-      <c r="G4" s="20" t="n"/>
+      <c r="G4" s="14">
+        <f>H4+I4</f>
+        <v/>
+      </c>
       <c r="H4" s="21" t="n"/>
       <c r="I4" s="22" t="n"/>
       <c r="J4" s="22" t="n"/>
@@ -875,28 +885,23 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="42" t="n">
-        <v>45049</v>
+        <v>45080</v>
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>水</t>
-        </is>
-      </c>
-      <c r="D5" s="47" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="E5" s="48" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="48" t="n"/>
       <c r="F5" s="46">
         <f>E5-D5</f>
         <v/>
       </c>
-      <c r="G5" s="20" t="n"/>
+      <c r="G5" s="14">
+        <f>H5+I5</f>
+        <v/>
+      </c>
       <c r="H5" s="21" t="n"/>
       <c r="I5" s="22" t="n"/>
       <c r="J5" s="22" t="n"/>
@@ -914,22 +919,33 @@
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="42" t="n">
-        <v>45050</v>
+        <v>45081</v>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D6" s="47" t="n"/>
-      <c r="E6" s="48" t="n"/>
+      <c r="E6" s="48" t="inlineStr">
+        <is>
+          <t>25:30</t>
+        </is>
+      </c>
       <c r="F6" s="46">
         <f>E6-D6</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="n"/>
-      <c r="H6" s="21" t="n"/>
-      <c r="I6" s="22" t="n"/>
+      <c r="G6" s="14">
+        <f>H6+I6</f>
+        <v/>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>10000</v>
+      </c>
       <c r="J6" s="22" t="n"/>
       <c r="K6" s="22" t="n"/>
       <c r="L6" s="22" t="n"/>
@@ -941,25 +957,46 @@
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="42" t="n">
-        <v>45051</v>
+        <v>45082</v>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>金</t>
-        </is>
-      </c>
-      <c r="D7" s="47" t="n"/>
-      <c r="E7" s="48" t="n"/>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D7" s="47" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E7" s="48" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="F7" s="46">
         <f>E7-D7</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="n"/>
-      <c r="H7" s="21" t="n"/>
-      <c r="I7" s="22" t="n"/>
+      <c r="G7" s="14">
+        <f>H7+I7</f>
+        <v/>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="22" t="n"/>
-      <c r="K7" s="22" t="n"/>
-      <c r="L7" s="22" t="n"/>
+      <c r="K7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="M7" s="23" t="n"/>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="24" t="inlineStr">
@@ -975,11 +1012,11 @@
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="42" t="n">
-        <v>45052</v>
+        <v>45083</v>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D8" s="47" t="n"/>
@@ -988,7 +1025,10 @@
         <f>E8-D8</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="n"/>
+      <c r="G8" s="14">
+        <f>H8+I8</f>
+        <v/>
+      </c>
       <c r="H8" s="21" t="n"/>
       <c r="I8" s="22" t="n"/>
       <c r="J8" s="22" t="n"/>
@@ -1009,11 +1049,11 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="42" t="n">
-        <v>45053</v>
+        <v>45084</v>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D9" s="47" t="n"/>
@@ -1022,7 +1062,10 @@
         <f>E9-D9</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="n"/>
+      <c r="G9" s="14">
+        <f>H9+I9</f>
+        <v/>
+      </c>
       <c r="H9" s="21" t="n"/>
       <c r="I9" s="22" t="n"/>
       <c r="J9" s="22" t="n"/>
@@ -1036,11 +1079,11 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="42" t="n">
-        <v>45054</v>
+        <v>45085</v>
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D10" s="47" t="n"/>
@@ -1049,7 +1092,10 @@
         <f>E10-D10</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="n"/>
+      <c r="G10" s="14">
+        <f>H10+I10</f>
+        <v/>
+      </c>
       <c r="H10" s="21" t="n"/>
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="22" t="n"/>
@@ -1067,11 +1113,11 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="42" t="n">
-        <v>45055</v>
+        <v>45086</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D11" s="47" t="n"/>
@@ -1080,7 +1126,10 @@
         <f>E11-D11</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="n"/>
+      <c r="G11" s="14">
+        <f>H11+I11</f>
+        <v/>
+      </c>
       <c r="H11" s="21" t="n"/>
       <c r="I11" s="22" t="n"/>
       <c r="J11" s="22" t="n"/>
@@ -1100,11 +1149,11 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="42" t="n">
-        <v>45056</v>
+        <v>45087</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D12" s="47" t="n"/>
@@ -1113,7 +1162,10 @@
         <f>E12-D12</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="n"/>
+      <c r="G12" s="14">
+        <f>H12+I12</f>
+        <v/>
+      </c>
       <c r="H12" s="21" t="n"/>
       <c r="I12" s="22" t="n"/>
       <c r="J12" s="22" t="n"/>
@@ -1133,11 +1185,11 @@
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="42" t="n">
-        <v>45057</v>
+        <v>45088</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D13" s="47" t="n"/>
@@ -1146,7 +1198,10 @@
         <f>E13-D13</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="n"/>
+      <c r="G13" s="14">
+        <f>H13+I13</f>
+        <v/>
+      </c>
       <c r="H13" s="21" t="n"/>
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
@@ -1166,11 +1221,11 @@
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="42" t="n">
-        <v>45058</v>
+        <v>45089</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D14" s="47" t="n"/>
@@ -1179,7 +1234,10 @@
         <f>E14-D14</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="n"/>
+      <c r="G14" s="14">
+        <f>H14+I14</f>
+        <v/>
+      </c>
       <c r="H14" s="21" t="n"/>
       <c r="I14" s="22" t="n"/>
       <c r="J14" s="22" t="n"/>
@@ -1199,11 +1257,11 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="42" t="n">
-        <v>45059</v>
+        <v>45090</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D15" s="47" t="n"/>
@@ -1212,7 +1270,10 @@
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="n"/>
+      <c r="G15" s="14">
+        <f>H15+I15</f>
+        <v/>
+      </c>
       <c r="H15" s="21" t="n"/>
       <c r="I15" s="22" t="n"/>
       <c r="J15" s="22" t="n"/>
@@ -1233,11 +1294,11 @@
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="42" t="n">
-        <v>45060</v>
+        <v>45091</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D16" s="47" t="n"/>
@@ -1246,7 +1307,10 @@
         <f>E16-D16</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="n"/>
+      <c r="G16" s="14">
+        <f>H16+I16</f>
+        <v/>
+      </c>
       <c r="H16" s="21" t="n"/>
       <c r="I16" s="22" t="n"/>
       <c r="J16" s="22" t="n"/>
@@ -1267,11 +1331,11 @@
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="42" t="n">
-        <v>45061</v>
+        <v>45092</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D17" s="47" t="n"/>
@@ -1280,7 +1344,10 @@
         <f>E17-D17</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="n"/>
+      <c r="G17" s="14">
+        <f>H17+I17</f>
+        <v/>
+      </c>
       <c r="H17" s="21" t="n"/>
       <c r="I17" s="22" t="n"/>
       <c r="J17" s="22" t="n"/>
@@ -1301,11 +1368,11 @@
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="42" t="n">
-        <v>45062</v>
+        <v>45093</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D18" s="47" t="n"/>
@@ -1314,7 +1381,10 @@
         <f>E18-D18</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="n"/>
+      <c r="G18" s="14">
+        <f>H18+I18</f>
+        <v/>
+      </c>
       <c r="H18" s="21" t="n"/>
       <c r="I18" s="22" t="n"/>
       <c r="J18" s="22" t="n"/>
@@ -1328,11 +1398,11 @@
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="42" t="n">
-        <v>45063</v>
+        <v>45094</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D19" s="47" t="n"/>
@@ -1341,7 +1411,10 @@
         <f>E19-D19</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="n"/>
+      <c r="G19" s="14">
+        <f>H19+I19</f>
+        <v/>
+      </c>
       <c r="H19" s="21" t="n"/>
       <c r="I19" s="22" t="n"/>
       <c r="J19" s="22" t="n"/>
@@ -1359,11 +1432,11 @@
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="42" t="n">
-        <v>45064</v>
+        <v>45095</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D20" s="47" t="n"/>
@@ -1372,7 +1445,10 @@
         <f>E20-D20</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="n"/>
+      <c r="G20" s="14">
+        <f>H20+I20</f>
+        <v/>
+      </c>
       <c r="H20" s="21" t="n"/>
       <c r="I20" s="22" t="n"/>
       <c r="J20" s="22" t="n"/>
@@ -1392,11 +1468,11 @@
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="42" t="n">
-        <v>45065</v>
+        <v>45096</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D21" s="47" t="n"/>
@@ -1405,7 +1481,10 @@
         <f>E21-D21</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="n"/>
+      <c r="G21" s="14">
+        <f>H21+I21</f>
+        <v/>
+      </c>
       <c r="H21" s="21" t="n"/>
       <c r="I21" s="22" t="n"/>
       <c r="J21" s="22" t="n"/>
@@ -1425,11 +1504,11 @@
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="42" t="n">
-        <v>45066</v>
+        <v>45097</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D22" s="47" t="n"/>
@@ -1438,7 +1517,10 @@
         <f>E22-D22</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="n"/>
+      <c r="G22" s="14">
+        <f>H22+I22</f>
+        <v/>
+      </c>
       <c r="H22" s="21" t="n"/>
       <c r="I22" s="22" t="n"/>
       <c r="J22" s="22" t="n"/>
@@ -1452,11 +1534,11 @@
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="42" t="n">
-        <v>45067</v>
+        <v>45098</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D23" s="47" t="n"/>
@@ -1465,7 +1547,10 @@
         <f>E23-D23</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="n"/>
+      <c r="G23" s="14">
+        <f>H23+I23</f>
+        <v/>
+      </c>
       <c r="H23" s="21" t="n"/>
       <c r="I23" s="22" t="n"/>
       <c r="J23" s="22" t="n"/>
@@ -1483,11 +1568,11 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="42" t="n">
-        <v>45068</v>
+        <v>45099</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D24" s="47" t="n"/>
@@ -1496,7 +1581,10 @@
         <f>E24-D24</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="n"/>
+      <c r="G24" s="14">
+        <f>H24+I24</f>
+        <v/>
+      </c>
       <c r="H24" s="21" t="n"/>
       <c r="I24" s="22" t="n"/>
       <c r="J24" s="22" t="n"/>
@@ -1517,11 +1605,11 @@
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="42" t="n">
-        <v>45069</v>
+        <v>45100</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D25" s="47" t="n"/>
@@ -1530,7 +1618,10 @@
         <f>E25-D25</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="n"/>
+      <c r="G25" s="14">
+        <f>H25+I25</f>
+        <v/>
+      </c>
       <c r="H25" s="21" t="n"/>
       <c r="I25" s="22" t="n"/>
       <c r="J25" s="22" t="n"/>
@@ -1551,11 +1642,11 @@
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="42" t="n">
-        <v>45070</v>
+        <v>45101</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D26" s="47" t="n"/>
@@ -1564,7 +1655,10 @@
         <f>E26-D26</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="n"/>
+      <c r="G26" s="14">
+        <f>H26+I26</f>
+        <v/>
+      </c>
       <c r="H26" s="21" t="n"/>
       <c r="I26" s="22" t="n"/>
       <c r="J26" s="22" t="n"/>
@@ -1585,11 +1679,11 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="42" t="n">
-        <v>45071</v>
+        <v>45102</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D27" s="47" t="n"/>
@@ -1598,7 +1692,10 @@
         <f>E27-D27</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="n"/>
+      <c r="G27" s="14">
+        <f>H27+I27</f>
+        <v/>
+      </c>
       <c r="H27" s="21" t="n"/>
       <c r="I27" s="22" t="n"/>
       <c r="J27" s="22" t="n"/>
@@ -1612,11 +1709,11 @@
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="42" t="n">
-        <v>45072</v>
+        <v>45103</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D28" s="47" t="n"/>
@@ -1625,7 +1722,10 @@
         <f>E28-D28</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="n"/>
+      <c r="G28" s="14">
+        <f>H28+I28</f>
+        <v/>
+      </c>
       <c r="H28" s="21" t="n"/>
       <c r="I28" s="22" t="n"/>
       <c r="J28" s="22" t="n"/>
@@ -1643,11 +1743,11 @@
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="42" t="n">
-        <v>45073</v>
+        <v>45104</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D29" s="47" t="n"/>
@@ -1656,7 +1756,10 @@
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="n"/>
+      <c r="G29" s="14">
+        <f>H29+I29</f>
+        <v/>
+      </c>
       <c r="H29" s="21" t="n"/>
       <c r="I29" s="22" t="n"/>
       <c r="J29" s="22" t="n"/>
@@ -1677,11 +1780,11 @@
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="42" t="n">
-        <v>45074</v>
+        <v>45105</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D30" s="47" t="n"/>
@@ -1690,7 +1793,10 @@
         <f>E30-D30</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="n"/>
+      <c r="G30" s="14">
+        <f>H30+I30</f>
+        <v/>
+      </c>
       <c r="H30" s="21" t="n"/>
       <c r="I30" s="22" t="n"/>
       <c r="J30" s="22" t="n"/>
@@ -1711,11 +1817,11 @@
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="42" t="n">
-        <v>45075</v>
+        <v>45106</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D31" s="47" t="n"/>
@@ -1724,7 +1830,10 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="20" t="n"/>
+      <c r="G31" s="14">
+        <f>H31+I31</f>
+        <v/>
+      </c>
       <c r="H31" s="21" t="n"/>
       <c r="I31" s="22" t="n"/>
       <c r="J31" s="22" t="n"/>
@@ -1738,11 +1847,11 @@
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="42" t="n">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D32" s="47" t="n"/>
@@ -1751,7 +1860,10 @@
         <f>E32-D32</f>
         <v/>
       </c>
-      <c r="G32" s="20" t="n"/>
+      <c r="G32" s="14">
+        <f>H32+I32</f>
+        <v/>
+      </c>
       <c r="H32" s="21" t="n"/>
       <c r="I32" s="22" t="n"/>
       <c r="J32" s="22" t="n"/>
@@ -1768,21 +1880,18 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="43" t="n">
-        <v>45077</v>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>水</t>
-        </is>
-      </c>
+      <c r="B33" s="43" t="n"/>
+      <c r="C33" s="34" t="n"/>
       <c r="D33" s="51" t="n"/>
       <c r="E33" s="52" t="n"/>
       <c r="F33" s="46">
         <f>E33-D33</f>
         <v/>
       </c>
-      <c r="G33" s="9" t="n"/>
+      <c r="G33" s="14">
+        <f>H33+I33</f>
+        <v/>
+      </c>
       <c r="H33" s="35" t="n"/>
       <c r="I33" s="37" t="n"/>
       <c r="J33" s="37" t="n"/>

--- a/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1224" yWindow="564" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="そのだ" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -15,11 +15,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    <numFmt numFmtId="168" formatCode=";;;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -237,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -325,6 +326,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -668,12 +675,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -721,6 +742,7 @@
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="11.8984375" customWidth="1" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -738,7 +760,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>そのだ</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
@@ -751,7 +773,11 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
+      <c r="P1" s="55">
+        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
+        <v/>
+      </c>
+      <c r="Q1" s="55" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -809,7 +835,11 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="8" t="n"/>
-      <c r="P2" s="1" t="n"/>
+      <c r="P2" s="56">
+        <f>P1</f>
+        <v/>
+      </c>
+      <c r="Q2" s="55" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -827,10 +857,7 @@
         <f>E3-D3</f>
         <v/>
       </c>
-      <c r="G3" s="14">
-        <f>H3+I3</f>
-        <v/>
-      </c>
+      <c r="G3" s="14" t="n"/>
       <c r="H3" s="11" t="n"/>
       <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
@@ -844,6 +871,7 @@
         </is>
       </c>
       <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -861,10 +889,7 @@
         <f>E4-D4</f>
         <v/>
       </c>
-      <c r="G4" s="14">
-        <f>H4+I4</f>
-        <v/>
-      </c>
+      <c r="G4" s="14" t="n"/>
       <c r="H4" s="21" t="n"/>
       <c r="I4" s="22" t="n"/>
       <c r="J4" s="22" t="n"/>
@@ -881,6 +906,7 @@
         <f>COUNTA(E3:E33)</f>
         <v/>
       </c>
+      <c r="Q4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -898,10 +924,7 @@
         <f>E5-D5</f>
         <v/>
       </c>
-      <c r="G5" s="14">
-        <f>H5+I5</f>
-        <v/>
-      </c>
+      <c r="G5" s="14" t="n"/>
       <c r="H5" s="21" t="n"/>
       <c r="I5" s="22" t="n"/>
       <c r="J5" s="22" t="n"/>
@@ -914,7 +937,11 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="28" t="n"/>
+      <c r="P5" s="28">
+        <f>1350+50*P1</f>
+        <v/>
+      </c>
+      <c r="Q5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -927,25 +954,14 @@
         </is>
       </c>
       <c r="D6" s="47" t="n"/>
-      <c r="E6" s="48" t="inlineStr">
-        <is>
-          <t>25:30</t>
-        </is>
-      </c>
+      <c r="E6" s="48" t="n"/>
       <c r="F6" s="46">
         <f>E6-D6</f>
         <v/>
       </c>
-      <c r="G6" s="14">
-        <f>H6+I6</f>
-        <v/>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22" t="n">
-        <v>10000</v>
-      </c>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="21" t="n"/>
+      <c r="I6" s="22" t="n"/>
       <c r="J6" s="22" t="n"/>
       <c r="K6" s="22" t="n"/>
       <c r="L6" s="22" t="n"/>
@@ -953,6 +969,7 @@
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -964,39 +981,18 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="47" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E7" s="48" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
+      <c r="D7" s="47" t="n"/>
+      <c r="E7" s="48" t="n"/>
       <c r="F7" s="46">
         <f>E7-D7</f>
         <v/>
       </c>
-      <c r="G7" s="14">
-        <f>H7+I7</f>
-        <v/>
-      </c>
-      <c r="H7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="21" t="n"/>
+      <c r="I7" s="22" t="n"/>
       <c r="J7" s="22" t="n"/>
-      <c r="K7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="K7" s="22" t="n"/>
+      <c r="L7" s="22" t="n"/>
       <c r="M7" s="23" t="n"/>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="24" t="inlineStr">
@@ -1008,6 +1004,7 @@
         <f>P5*F34</f>
         <v/>
       </c>
+      <c r="Q7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1025,10 +1022,7 @@
         <f>E8-D8</f>
         <v/>
       </c>
-      <c r="G8" s="14">
-        <f>H8+I8</f>
-        <v/>
-      </c>
+      <c r="G8" s="14" t="n"/>
       <c r="H8" s="21" t="n"/>
       <c r="I8" s="22" t="n"/>
       <c r="J8" s="22" t="n"/>
@@ -1045,6 +1039,7 @@
         <f>K34</f>
         <v/>
       </c>
+      <c r="Q8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1062,10 +1057,7 @@
         <f>E9-D9</f>
         <v/>
       </c>
-      <c r="G9" s="14">
-        <f>H9+I9</f>
-        <v/>
-      </c>
+      <c r="G9" s="14" t="n"/>
       <c r="H9" s="21" t="n"/>
       <c r="I9" s="22" t="n"/>
       <c r="J9" s="22" t="n"/>
@@ -1075,6 +1067,7 @@
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
       <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -1092,10 +1085,7 @@
         <f>E10-D10</f>
         <v/>
       </c>
-      <c r="G10" s="14">
-        <f>H10+I10</f>
-        <v/>
-      </c>
+      <c r="G10" s="14" t="n"/>
       <c r="H10" s="21" t="n"/>
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="22" t="n"/>
@@ -1109,6 +1099,7 @@
         </is>
       </c>
       <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1126,10 +1117,7 @@
         <f>E11-D11</f>
         <v/>
       </c>
-      <c r="G11" s="14">
-        <f>H11+I11</f>
-        <v/>
-      </c>
+      <c r="G11" s="14" t="n"/>
       <c r="H11" s="21" t="n"/>
       <c r="I11" s="22" t="n"/>
       <c r="J11" s="22" t="n"/>
@@ -1145,6 +1133,7 @@
       <c r="P11" s="25" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1162,10 +1151,7 @@
         <f>E12-D12</f>
         <v/>
       </c>
-      <c r="G12" s="14">
-        <f>H12+I12</f>
-        <v/>
-      </c>
+      <c r="G12" s="14" t="n"/>
       <c r="H12" s="21" t="n"/>
       <c r="I12" s="22" t="n"/>
       <c r="J12" s="22" t="n"/>
@@ -1181,6 +1167,7 @@
       <c r="P12" s="31" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -1198,10 +1185,7 @@
         <f>E13-D13</f>
         <v/>
       </c>
-      <c r="G13" s="14">
-        <f>H13+I13</f>
-        <v/>
-      </c>
+      <c r="G13" s="14" t="n"/>
       <c r="H13" s="21" t="n"/>
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
@@ -1217,6 +1201,7 @@
       <c r="P13" s="31" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -1228,22 +1213,33 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="47" t="n"/>
+      <c r="D14" s="47" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
       <c r="E14" s="48" t="n"/>
       <c r="F14" s="46">
         <f>E14-D14</f>
         <v/>
       </c>
-      <c r="G14" s="14">
-        <f>H14+I14</f>
-        <v/>
-      </c>
-      <c r="H14" s="21" t="n"/>
-      <c r="I14" s="22" t="n"/>
+      <c r="G14" s="14" t="n">
+        <v>17160</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <v>10000</v>
+      </c>
       <c r="J14" s="22" t="n"/>
-      <c r="K14" s="22" t="n"/>
+      <c r="K14" s="22" t="n">
+        <v>3900</v>
+      </c>
       <c r="L14" s="22" t="n"/>
-      <c r="M14" s="23" t="n"/>
+      <c r="M14" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="30" t="inlineStr">
         <is>
@@ -1253,6 +1249,7 @@
       <c r="P14" s="31" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1270,9 +1267,8 @@
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="14">
-        <f>H15+I15</f>
-        <v/>
+      <c r="G15" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="21" t="n"/>
       <c r="I15" s="22" t="n"/>
@@ -1290,6 +1286,7 @@
         <f>I34*10%</f>
         <v/>
       </c>
+      <c r="Q15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -1307,10 +1304,7 @@
         <f>E16-D16</f>
         <v/>
       </c>
-      <c r="G16" s="14">
-        <f>H16+I16</f>
-        <v/>
-      </c>
+      <c r="G16" s="14" t="n"/>
       <c r="H16" s="21" t="n"/>
       <c r="I16" s="22" t="n"/>
       <c r="J16" s="22" t="n"/>
@@ -1327,6 +1321,7 @@
         <f>H34*200</f>
         <v/>
       </c>
+      <c r="Q16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1344,10 +1339,7 @@
         <f>E17-D17</f>
         <v/>
       </c>
-      <c r="G17" s="14">
-        <f>H17+I17</f>
-        <v/>
-      </c>
+      <c r="G17" s="14" t="n"/>
       <c r="H17" s="21" t="n"/>
       <c r="I17" s="22" t="n"/>
       <c r="J17" s="22" t="n"/>
@@ -1364,6 +1356,7 @@
         <f>SUM(P11:P16)</f>
         <v/>
       </c>
+      <c r="Q17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1381,10 +1374,7 @@
         <f>E18-D18</f>
         <v/>
       </c>
-      <c r="G18" s="14">
-        <f>H18+I18</f>
-        <v/>
-      </c>
+      <c r="G18" s="14" t="n"/>
       <c r="H18" s="21" t="n"/>
       <c r="I18" s="22" t="n"/>
       <c r="J18" s="22" t="n"/>
@@ -1394,6 +1384,7 @@
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -1411,10 +1402,7 @@
         <f>E19-D19</f>
         <v/>
       </c>
-      <c r="G19" s="14">
-        <f>H19+I19</f>
-        <v/>
-      </c>
+      <c r="G19" s="14" t="n"/>
       <c r="H19" s="21" t="n"/>
       <c r="I19" s="22" t="n"/>
       <c r="J19" s="22" t="n"/>
@@ -1428,6 +1416,7 @@
         </is>
       </c>
       <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1445,10 +1434,7 @@
         <f>E20-D20</f>
         <v/>
       </c>
-      <c r="G20" s="14">
-        <f>H20+I20</f>
-        <v/>
-      </c>
+      <c r="G20" s="14" t="n"/>
       <c r="H20" s="21" t="n"/>
       <c r="I20" s="22" t="n"/>
       <c r="J20" s="22" t="n"/>
@@ -1464,6 +1450,7 @@
       <c r="P20" s="25" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1481,10 +1468,7 @@
         <f>E21-D21</f>
         <v/>
       </c>
-      <c r="G21" s="14">
-        <f>H21+I21</f>
-        <v/>
-      </c>
+      <c r="G21" s="14" t="n"/>
       <c r="H21" s="21" t="n"/>
       <c r="I21" s="22" t="n"/>
       <c r="J21" s="22" t="n"/>
@@ -1500,6 +1484,7 @@
       <c r="P21" s="28" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1517,10 +1502,7 @@
         <f>E22-D22</f>
         <v/>
       </c>
-      <c r="G22" s="14">
-        <f>H22+I22</f>
-        <v/>
-      </c>
+      <c r="G22" s="14" t="n"/>
       <c r="H22" s="21" t="n"/>
       <c r="I22" s="22" t="n"/>
       <c r="J22" s="22" t="n"/>
@@ -1530,6 +1512,7 @@
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n"/>
       <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1547,10 +1530,7 @@
         <f>E23-D23</f>
         <v/>
       </c>
-      <c r="G23" s="14">
-        <f>H23+I23</f>
-        <v/>
-      </c>
+      <c r="G23" s="14" t="n"/>
       <c r="H23" s="21" t="n"/>
       <c r="I23" s="22" t="n"/>
       <c r="J23" s="22" t="n"/>
@@ -1564,6 +1544,7 @@
         </is>
       </c>
       <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1581,10 +1562,7 @@
         <f>E24-D24</f>
         <v/>
       </c>
-      <c r="G24" s="14">
-        <f>H24+I24</f>
-        <v/>
-      </c>
+      <c r="G24" s="14" t="n"/>
       <c r="H24" s="21" t="n"/>
       <c r="I24" s="22" t="n"/>
       <c r="J24" s="22" t="n"/>
@@ -1601,6 +1579,7 @@
         <f>P29*10.21%</f>
         <v/>
       </c>
+      <c r="Q24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -1618,10 +1597,7 @@
         <f>E25-D25</f>
         <v/>
       </c>
-      <c r="G25" s="14">
-        <f>H25+I25</f>
-        <v/>
-      </c>
+      <c r="G25" s="14" t="n"/>
       <c r="H25" s="21" t="n"/>
       <c r="I25" s="22" t="n"/>
       <c r="J25" s="22" t="n"/>
@@ -1638,6 +1614,7 @@
         <f>L34*500</f>
         <v/>
       </c>
+      <c r="Q25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1655,10 +1632,7 @@
         <f>E26-D26</f>
         <v/>
       </c>
-      <c r="G26" s="14">
-        <f>H26+I26</f>
-        <v/>
-      </c>
+      <c r="G26" s="14" t="n"/>
       <c r="H26" s="21" t="n"/>
       <c r="I26" s="22" t="n"/>
       <c r="J26" s="22" t="n"/>
@@ -1675,6 +1649,7 @@
         <f>M34</f>
         <v/>
       </c>
+      <c r="Q26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1692,10 +1667,7 @@
         <f>E27-D27</f>
         <v/>
       </c>
-      <c r="G27" s="14">
-        <f>H27+I27</f>
-        <v/>
-      </c>
+      <c r="G27" s="14" t="n"/>
       <c r="H27" s="21" t="n"/>
       <c r="I27" s="22" t="n"/>
       <c r="J27" s="22" t="n"/>
@@ -1705,6 +1677,7 @@
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
       <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1722,10 +1695,7 @@
         <f>E28-D28</f>
         <v/>
       </c>
-      <c r="G28" s="14">
-        <f>H28+I28</f>
-        <v/>
-      </c>
+      <c r="G28" s="14" t="n"/>
       <c r="H28" s="21" t="n"/>
       <c r="I28" s="22" t="n"/>
       <c r="J28" s="22" t="n"/>
@@ -1739,6 +1709,7 @@
         </is>
       </c>
       <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1756,10 +1727,7 @@
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="G29" s="14">
-        <f>H29+I29</f>
-        <v/>
-      </c>
+      <c r="G29" s="14" t="n"/>
       <c r="H29" s="21" t="n"/>
       <c r="I29" s="22" t="n"/>
       <c r="J29" s="22" t="n"/>
@@ -1776,6 +1744,7 @@
         <f>P7+P8+P17+P20+P21</f>
         <v/>
       </c>
+      <c r="Q29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -1793,10 +1762,7 @@
         <f>E30-D30</f>
         <v/>
       </c>
-      <c r="G30" s="14">
-        <f>H30+I30</f>
-        <v/>
-      </c>
+      <c r="G30" s="14" t="n"/>
       <c r="H30" s="21" t="n"/>
       <c r="I30" s="22" t="n"/>
       <c r="J30" s="22" t="n"/>
@@ -1813,6 +1779,7 @@
         <f>P29-P24-P25-P26-P8</f>
         <v/>
       </c>
+      <c r="Q30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1830,10 +1797,7 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="14">
-        <f>H31+I31</f>
-        <v/>
-      </c>
+      <c r="G31" s="14" t="n"/>
       <c r="H31" s="21" t="n"/>
       <c r="I31" s="22" t="n"/>
       <c r="J31" s="22" t="n"/>
@@ -1843,6 +1807,7 @@
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n"/>
       <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1860,10 +1825,7 @@
         <f>E32-D32</f>
         <v/>
       </c>
-      <c r="G32" s="14">
-        <f>H32+I32</f>
-        <v/>
-      </c>
+      <c r="G32" s="14" t="n"/>
       <c r="H32" s="21" t="n"/>
       <c r="I32" s="22" t="n"/>
       <c r="J32" s="22" t="n"/>
@@ -1877,6 +1839,7 @@
         </is>
       </c>
       <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1888,10 +1851,7 @@
         <f>E33-D33</f>
         <v/>
       </c>
-      <c r="G33" s="14">
-        <f>H33+I33</f>
-        <v/>
-      </c>
+      <c r="G33" s="14" t="n"/>
       <c r="H33" s="35" t="n"/>
       <c r="I33" s="37" t="n"/>
       <c r="J33" s="37" t="n"/>
@@ -1908,6 +1868,7 @@
         <f>G34</f>
         <v/>
       </c>
+      <c r="Q33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1961,6 +1922,7 @@
         <f>P29/P33</f>
         <v/>
       </c>
+      <c r="Q34" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1224" yWindow="564" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="そのだ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="めい" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -722,12 +722,14 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="8.796875" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="8.796875" customWidth="1" min="2" max="2"/>
     <col width="5.69921875" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="8.796875" customWidth="1" min="5" max="5"/>
@@ -760,7 +762,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>そのだ</t>
+          <t>めい</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
@@ -773,10 +775,7 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
-      <c r="P1" s="55">
-        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
-        <v/>
-      </c>
+      <c r="P1" s="1" t="n"/>
       <c r="Q1" s="55" t="n"/>
     </row>
     <row r="2">
@@ -835,20 +834,17 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="8" t="n"/>
-      <c r="P2" s="56">
-        <f>P1</f>
-        <v/>
-      </c>
+      <c r="P2" s="1" t="n"/>
       <c r="Q2" s="55" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="42" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D3" s="44" t="n"/>
@@ -857,13 +853,23 @@
         <f>E3-D3</f>
         <v/>
       </c>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="11" t="n"/>
-      <c r="I3" s="15" t="n"/>
+      <c r="G3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
+      <c r="K3" s="15" t="n">
+        <v>7200</v>
+      </c>
       <c r="L3" s="15" t="n"/>
-      <c r="M3" s="16" t="n"/>
+      <c r="M3" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="17" t="inlineStr">
         <is>
@@ -876,11 +882,11 @@
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="42" t="n">
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D4" s="47" t="n"/>
@@ -889,7 +895,7 @@
         <f>E4-D4</f>
         <v/>
       </c>
-      <c r="G4" s="14" t="n"/>
+      <c r="G4" s="20" t="n"/>
       <c r="H4" s="21" t="n"/>
       <c r="I4" s="22" t="n"/>
       <c r="J4" s="22" t="n"/>
@@ -911,11 +917,11 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="42" t="n">
-        <v>45080</v>
+        <v>45110</v>
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D5" s="47" t="n"/>
@@ -924,7 +930,7 @@
         <f>E5-D5</f>
         <v/>
       </c>
-      <c r="G5" s="14" t="n"/>
+      <c r="G5" s="20" t="n"/>
       <c r="H5" s="21" t="n"/>
       <c r="I5" s="22" t="n"/>
       <c r="J5" s="22" t="n"/>
@@ -937,20 +943,19 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="28">
-        <f>1350+50*P1</f>
-        <v/>
+      <c r="P5" s="28" t="n">
+        <v>1400</v>
       </c>
       <c r="Q5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="42" t="n">
-        <v>45081</v>
+        <v>45111</v>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D6" s="47" t="n"/>
@@ -959,7 +964,7 @@
         <f>E6-D6</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="n"/>
+      <c r="G6" s="20" t="n"/>
       <c r="H6" s="21" t="n"/>
       <c r="I6" s="22" t="n"/>
       <c r="J6" s="22" t="n"/>
@@ -974,11 +979,11 @@
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="42" t="n">
-        <v>45082</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D7" s="47" t="n"/>
@@ -987,7 +992,7 @@
         <f>E7-D7</f>
         <v/>
       </c>
-      <c r="G7" s="14" t="n"/>
+      <c r="G7" s="20" t="n"/>
       <c r="H7" s="21" t="n"/>
       <c r="I7" s="22" t="n"/>
       <c r="J7" s="22" t="n"/>
@@ -1009,11 +1014,11 @@
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="42" t="n">
-        <v>45083</v>
+        <v>45113</v>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D8" s="47" t="n"/>
@@ -1022,7 +1027,7 @@
         <f>E8-D8</f>
         <v/>
       </c>
-      <c r="G8" s="14" t="n"/>
+      <c r="G8" s="20" t="n"/>
       <c r="H8" s="21" t="n"/>
       <c r="I8" s="22" t="n"/>
       <c r="J8" s="22" t="n"/>
@@ -1044,11 +1049,11 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="42" t="n">
-        <v>45084</v>
+        <v>45114</v>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D9" s="47" t="n"/>
@@ -1057,7 +1062,7 @@
         <f>E9-D9</f>
         <v/>
       </c>
-      <c r="G9" s="14" t="n"/>
+      <c r="G9" s="20" t="n"/>
       <c r="H9" s="21" t="n"/>
       <c r="I9" s="22" t="n"/>
       <c r="J9" s="22" t="n"/>
@@ -1072,11 +1077,11 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="42" t="n">
-        <v>45085</v>
+        <v>45115</v>
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D10" s="47" t="n"/>
@@ -1085,7 +1090,7 @@
         <f>E10-D10</f>
         <v/>
       </c>
-      <c r="G10" s="14" t="n"/>
+      <c r="G10" s="20" t="n"/>
       <c r="H10" s="21" t="n"/>
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="22" t="n"/>
@@ -1104,11 +1109,11 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="42" t="n">
-        <v>45086</v>
+        <v>45116</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D11" s="47" t="n"/>
@@ -1117,7 +1122,7 @@
         <f>E11-D11</f>
         <v/>
       </c>
-      <c r="G11" s="14" t="n"/>
+      <c r="G11" s="20" t="n"/>
       <c r="H11" s="21" t="n"/>
       <c r="I11" s="22" t="n"/>
       <c r="J11" s="22" t="n"/>
@@ -1138,11 +1143,11 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="42" t="n">
-        <v>45087</v>
+        <v>45117</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D12" s="47" t="n"/>
@@ -1151,7 +1156,7 @@
         <f>E12-D12</f>
         <v/>
       </c>
-      <c r="G12" s="14" t="n"/>
+      <c r="G12" s="20" t="n"/>
       <c r="H12" s="21" t="n"/>
       <c r="I12" s="22" t="n"/>
       <c r="J12" s="22" t="n"/>
@@ -1172,11 +1177,11 @@
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="42" t="n">
-        <v>45088</v>
+        <v>45118</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D13" s="47" t="n"/>
@@ -1185,7 +1190,7 @@
         <f>E13-D13</f>
         <v/>
       </c>
-      <c r="G13" s="14" t="n"/>
+      <c r="G13" s="20" t="n"/>
       <c r="H13" s="21" t="n"/>
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
@@ -1206,40 +1211,26 @@
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="42" t="n">
-        <v>45089</v>
+        <v>45119</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>月</t>
-        </is>
-      </c>
-      <c r="D14" s="47" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D14" s="47" t="n"/>
       <c r="E14" s="48" t="n"/>
       <c r="F14" s="46">
         <f>E14-D14</f>
         <v/>
       </c>
-      <c r="G14" s="14" t="n">
-        <v>17160</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22" t="n">
-        <v>10000</v>
-      </c>
+      <c r="G14" s="20" t="n"/>
+      <c r="H14" s="21" t="n"/>
+      <c r="I14" s="22" t="n"/>
       <c r="J14" s="22" t="n"/>
-      <c r="K14" s="22" t="n">
-        <v>3900</v>
-      </c>
+      <c r="K14" s="22" t="n"/>
       <c r="L14" s="22" t="n"/>
-      <c r="M14" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" s="23" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="30" t="inlineStr">
         <is>
@@ -1254,11 +1245,11 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="42" t="n">
-        <v>45090</v>
+        <v>45120</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D15" s="47" t="n"/>
@@ -1267,9 +1258,7 @@
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="20" t="n"/>
       <c r="H15" s="21" t="n"/>
       <c r="I15" s="22" t="n"/>
       <c r="J15" s="22" t="n"/>
@@ -1291,11 +1280,11 @@
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="42" t="n">
-        <v>45091</v>
+        <v>45121</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D16" s="47" t="n"/>
@@ -1304,7 +1293,7 @@
         <f>E16-D16</f>
         <v/>
       </c>
-      <c r="G16" s="14" t="n"/>
+      <c r="G16" s="20" t="n"/>
       <c r="H16" s="21" t="n"/>
       <c r="I16" s="22" t="n"/>
       <c r="J16" s="22" t="n"/>
@@ -1326,11 +1315,11 @@
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="42" t="n">
-        <v>45092</v>
+        <v>45122</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D17" s="47" t="n"/>
@@ -1339,7 +1328,7 @@
         <f>E17-D17</f>
         <v/>
       </c>
-      <c r="G17" s="14" t="n"/>
+      <c r="G17" s="20" t="n"/>
       <c r="H17" s="21" t="n"/>
       <c r="I17" s="22" t="n"/>
       <c r="J17" s="22" t="n"/>
@@ -1361,11 +1350,11 @@
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="42" t="n">
-        <v>45093</v>
+        <v>45123</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D18" s="47" t="n"/>
@@ -1374,7 +1363,7 @@
         <f>E18-D18</f>
         <v/>
       </c>
-      <c r="G18" s="14" t="n"/>
+      <c r="G18" s="20" t="n"/>
       <c r="H18" s="21" t="n"/>
       <c r="I18" s="22" t="n"/>
       <c r="J18" s="22" t="n"/>
@@ -1389,11 +1378,11 @@
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="42" t="n">
-        <v>45094</v>
+        <v>45124</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D19" s="47" t="n"/>
@@ -1402,7 +1391,7 @@
         <f>E19-D19</f>
         <v/>
       </c>
-      <c r="G19" s="14" t="n"/>
+      <c r="G19" s="20" t="n"/>
       <c r="H19" s="21" t="n"/>
       <c r="I19" s="22" t="n"/>
       <c r="J19" s="22" t="n"/>
@@ -1421,11 +1410,11 @@
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="42" t="n">
-        <v>45095</v>
+        <v>45125</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D20" s="47" t="n"/>
@@ -1434,7 +1423,7 @@
         <f>E20-D20</f>
         <v/>
       </c>
-      <c r="G20" s="14" t="n"/>
+      <c r="G20" s="20" t="n"/>
       <c r="H20" s="21" t="n"/>
       <c r="I20" s="22" t="n"/>
       <c r="J20" s="22" t="n"/>
@@ -1455,11 +1444,11 @@
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="42" t="n">
-        <v>45096</v>
+        <v>45126</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D21" s="47" t="n"/>
@@ -1468,7 +1457,7 @@
         <f>E21-D21</f>
         <v/>
       </c>
-      <c r="G21" s="14" t="n"/>
+      <c r="G21" s="20" t="n"/>
       <c r="H21" s="21" t="n"/>
       <c r="I21" s="22" t="n"/>
       <c r="J21" s="22" t="n"/>
@@ -1489,11 +1478,11 @@
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="42" t="n">
-        <v>45097</v>
+        <v>45127</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D22" s="47" t="n"/>
@@ -1502,7 +1491,7 @@
         <f>E22-D22</f>
         <v/>
       </c>
-      <c r="G22" s="14" t="n"/>
+      <c r="G22" s="20" t="n"/>
       <c r="H22" s="21" t="n"/>
       <c r="I22" s="22" t="n"/>
       <c r="J22" s="22" t="n"/>
@@ -1517,11 +1506,11 @@
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="42" t="n">
-        <v>45098</v>
+        <v>45128</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D23" s="47" t="n"/>
@@ -1530,7 +1519,7 @@
         <f>E23-D23</f>
         <v/>
       </c>
-      <c r="G23" s="14" t="n"/>
+      <c r="G23" s="20" t="n"/>
       <c r="H23" s="21" t="n"/>
       <c r="I23" s="22" t="n"/>
       <c r="J23" s="22" t="n"/>
@@ -1549,11 +1538,11 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="42" t="n">
-        <v>45099</v>
+        <v>45129</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D24" s="47" t="n"/>
@@ -1562,7 +1551,7 @@
         <f>E24-D24</f>
         <v/>
       </c>
-      <c r="G24" s="14" t="n"/>
+      <c r="G24" s="20" t="n"/>
       <c r="H24" s="21" t="n"/>
       <c r="I24" s="22" t="n"/>
       <c r="J24" s="22" t="n"/>
@@ -1584,11 +1573,11 @@
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="42" t="n">
-        <v>45100</v>
+        <v>45130</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D25" s="47" t="n"/>
@@ -1597,7 +1586,7 @@
         <f>E25-D25</f>
         <v/>
       </c>
-      <c r="G25" s="14" t="n"/>
+      <c r="G25" s="20" t="n"/>
       <c r="H25" s="21" t="n"/>
       <c r="I25" s="22" t="n"/>
       <c r="J25" s="22" t="n"/>
@@ -1619,11 +1608,11 @@
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="42" t="n">
-        <v>45101</v>
+        <v>45131</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D26" s="47" t="n"/>
@@ -1632,7 +1621,7 @@
         <f>E26-D26</f>
         <v/>
       </c>
-      <c r="G26" s="14" t="n"/>
+      <c r="G26" s="20" t="n"/>
       <c r="H26" s="21" t="n"/>
       <c r="I26" s="22" t="n"/>
       <c r="J26" s="22" t="n"/>
@@ -1654,11 +1643,11 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="42" t="n">
-        <v>45102</v>
+        <v>45132</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D27" s="47" t="n"/>
@@ -1667,7 +1656,7 @@
         <f>E27-D27</f>
         <v/>
       </c>
-      <c r="G27" s="14" t="n"/>
+      <c r="G27" s="20" t="n"/>
       <c r="H27" s="21" t="n"/>
       <c r="I27" s="22" t="n"/>
       <c r="J27" s="22" t="n"/>
@@ -1682,11 +1671,11 @@
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="42" t="n">
-        <v>45103</v>
+        <v>45133</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D28" s="47" t="n"/>
@@ -1695,7 +1684,7 @@
         <f>E28-D28</f>
         <v/>
       </c>
-      <c r="G28" s="14" t="n"/>
+      <c r="G28" s="20" t="n"/>
       <c r="H28" s="21" t="n"/>
       <c r="I28" s="22" t="n"/>
       <c r="J28" s="22" t="n"/>
@@ -1714,11 +1703,11 @@
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="42" t="n">
-        <v>45104</v>
+        <v>45134</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D29" s="47" t="n"/>
@@ -1727,7 +1716,7 @@
         <f>E29-D29</f>
         <v/>
       </c>
-      <c r="G29" s="14" t="n"/>
+      <c r="G29" s="20" t="n"/>
       <c r="H29" s="21" t="n"/>
       <c r="I29" s="22" t="n"/>
       <c r="J29" s="22" t="n"/>
@@ -1749,11 +1738,11 @@
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="42" t="n">
-        <v>45105</v>
+        <v>45135</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D30" s="47" t="n"/>
@@ -1762,7 +1751,7 @@
         <f>E30-D30</f>
         <v/>
       </c>
-      <c r="G30" s="14" t="n"/>
+      <c r="G30" s="20" t="n"/>
       <c r="H30" s="21" t="n"/>
       <c r="I30" s="22" t="n"/>
       <c r="J30" s="22" t="n"/>
@@ -1784,11 +1773,11 @@
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="42" t="n">
-        <v>45106</v>
+        <v>45136</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D31" s="47" t="n"/>
@@ -1797,7 +1786,7 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="14" t="n"/>
+      <c r="G31" s="20" t="n"/>
       <c r="H31" s="21" t="n"/>
       <c r="I31" s="22" t="n"/>
       <c r="J31" s="22" t="n"/>
@@ -1812,11 +1801,11 @@
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="42" t="n">
-        <v>45107</v>
+        <v>45137</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D32" s="47" t="n"/>
@@ -1825,7 +1814,7 @@
         <f>E32-D32</f>
         <v/>
       </c>
-      <c r="G32" s="14" t="n"/>
+      <c r="G32" s="20" t="n"/>
       <c r="H32" s="21" t="n"/>
       <c r="I32" s="22" t="n"/>
       <c r="J32" s="22" t="n"/>
@@ -1843,15 +1832,21 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="43" t="n"/>
-      <c r="C33" s="34" t="n"/>
+      <c r="B33" s="43" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
       <c r="D33" s="51" t="n"/>
       <c r="E33" s="52" t="n"/>
       <c r="F33" s="46">
         <f>E33-D33</f>
         <v/>
       </c>
-      <c r="G33" s="14" t="n"/>
+      <c r="G33" s="9" t="n"/>
       <c r="H33" s="35" t="n"/>
       <c r="I33" s="37" t="n"/>
       <c r="J33" s="37" t="n"/>

--- a/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/download_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1224" yWindow="564" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="めい" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -724,6 +724,10 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -762,7 +766,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>めい</t>
+          <t>test</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
@@ -840,11 +844,11 @@
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="42" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D3" s="44" t="n"/>
@@ -853,23 +857,13 @@
         <f>E3-D3</f>
         <v/>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="11" t="n"/>
+      <c r="I3" s="15" t="n"/>
       <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n">
-        <v>7200</v>
-      </c>
+      <c r="K3" s="15" t="n"/>
       <c r="L3" s="15" t="n"/>
-      <c r="M3" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" s="16" t="n"/>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="17" t="inlineStr">
         <is>
@@ -882,11 +876,11 @@
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="42" t="n">
-        <v>45109</v>
+        <v>45140</v>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D4" s="47" t="n"/>
@@ -917,11 +911,11 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="42" t="n">
-        <v>45110</v>
+        <v>45141</v>
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D5" s="47" t="n"/>
@@ -951,11 +945,11 @@
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="42" t="n">
-        <v>45111</v>
+        <v>45142</v>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D6" s="47" t="n"/>
@@ -979,11 +973,11 @@
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="42" t="n">
-        <v>45112</v>
+        <v>45143</v>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D7" s="47" t="n"/>
@@ -1014,11 +1008,11 @@
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="42" t="n">
-        <v>45113</v>
+        <v>45144</v>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D8" s="47" t="n"/>
@@ -1049,11 +1043,11 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="42" t="n">
-        <v>45114</v>
+        <v>45145</v>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D9" s="47" t="n"/>
@@ -1077,11 +1071,11 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="42" t="n">
-        <v>45115</v>
+        <v>45146</v>
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D10" s="47" t="n"/>
@@ -1109,11 +1103,11 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="42" t="n">
-        <v>45116</v>
+        <v>45147</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D11" s="47" t="n"/>
@@ -1143,11 +1137,11 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="42" t="n">
-        <v>45117</v>
+        <v>45148</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D12" s="47" t="n"/>
@@ -1177,11 +1171,11 @@
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="42" t="n">
-        <v>45118</v>
+        <v>45149</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D13" s="47" t="n"/>
@@ -1211,11 +1205,11 @@
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="42" t="n">
-        <v>45119</v>
+        <v>45150</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D14" s="47" t="n"/>
@@ -1245,26 +1239,44 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="42" t="n">
-        <v>45120</v>
+        <v>45151</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>木</t>
-        </is>
-      </c>
-      <c r="D15" s="47" t="n"/>
-      <c r="E15" s="48" t="n"/>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D15" s="47" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E15" s="48" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="F15" s="46">
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="n"/>
-      <c r="H15" s="21" t="n"/>
-      <c r="I15" s="22" t="n"/>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="22" t="n"/>
-      <c r="K15" s="22" t="n"/>
+      <c r="K15" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" s="22" t="n"/>
-      <c r="M15" s="23" t="n"/>
+      <c r="M15" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="30" t="inlineStr">
         <is>
@@ -1280,11 +1292,11 @@
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="42" t="n">
-        <v>45121</v>
+        <v>45152</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D16" s="47" t="n"/>
@@ -1315,11 +1327,11 @@
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="42" t="n">
-        <v>45122</v>
+        <v>45153</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D17" s="47" t="n"/>
@@ -1350,11 +1362,11 @@
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="42" t="n">
-        <v>45123</v>
+        <v>45154</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D18" s="47" t="n"/>
@@ -1378,11 +1390,11 @@
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="42" t="n">
-        <v>45124</v>
+        <v>45155</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D19" s="47" t="n"/>
@@ -1410,11 +1422,11 @@
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="42" t="n">
-        <v>45125</v>
+        <v>45156</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D20" s="47" t="n"/>
@@ -1444,11 +1456,11 @@
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="42" t="n">
-        <v>45126</v>
+        <v>45157</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D21" s="47" t="n"/>
@@ -1478,11 +1490,11 @@
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="42" t="n">
-        <v>45127</v>
+        <v>45158</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D22" s="47" t="n"/>
@@ -1506,11 +1518,11 @@
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="42" t="n">
-        <v>45128</v>
+        <v>45159</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D23" s="47" t="n"/>
@@ -1538,11 +1550,11 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="42" t="n">
-        <v>45129</v>
+        <v>45160</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D24" s="47" t="n"/>
@@ -1573,11 +1585,11 @@
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="42" t="n">
-        <v>45130</v>
+        <v>45161</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D25" s="47" t="n"/>
@@ -1608,11 +1620,11 @@
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="42" t="n">
-        <v>45131</v>
+        <v>45162</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D26" s="47" t="n"/>
@@ -1643,11 +1655,11 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="42" t="n">
-        <v>45132</v>
+        <v>45163</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D27" s="47" t="n"/>
@@ -1671,11 +1683,11 @@
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="42" t="n">
-        <v>45133</v>
+        <v>45164</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D28" s="47" t="n"/>
@@ -1703,11 +1715,11 @@
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="42" t="n">
-        <v>45134</v>
+        <v>45165</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D29" s="47" t="n"/>
@@ -1738,11 +1750,11 @@
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="42" t="n">
-        <v>45135</v>
+        <v>45166</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D30" s="47" t="n"/>
@@ -1773,11 +1785,11 @@
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="42" t="n">
-        <v>45136</v>
+        <v>45167</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D31" s="47" t="n"/>
@@ -1801,11 +1813,11 @@
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="42" t="n">
-        <v>45137</v>
+        <v>45168</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D32" s="47" t="n"/>
@@ -1833,11 +1845,11 @@
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="43" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="C33" s="34" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D33" s="51" t="n"/>
